--- a/faculty_dict.xlsx
+++ b/faculty_dict.xlsx
@@ -8031,7 +8031,11 @@
           <t>机械21</t>
         </is>
       </c>
-      <c r="I103" s="1" t="n"/>
+      <c r="I103" s="1" t="inlineStr">
+        <is>
+          <t>城市21</t>
+        </is>
+      </c>
       <c r="J103" s="1" t="inlineStr">
         <is>
           <t>物流21</t>
@@ -9572,7 +9576,11 @@
           <t>406</t>
         </is>
       </c>
-      <c r="B127" s="1" t="n"/>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>计算24</t>
+        </is>
+      </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
           <t>机械24</t>
@@ -12433,7 +12441,11 @@
           <t>能源24</t>
         </is>
       </c>
-      <c r="H166" s="1" t="n"/>
+      <c r="H166" s="1" t="inlineStr">
+        <is>
+          <t>机械21</t>
+        </is>
+      </c>
       <c r="I166" s="1" t="inlineStr">
         <is>
           <t>食品21</t>
@@ -12514,7 +12526,11 @@
           <t>能源24</t>
         </is>
       </c>
-      <c r="H167" s="1" t="n"/>
+      <c r="H167" s="1" t="inlineStr">
+        <is>
+          <t>机械21</t>
+        </is>
+      </c>
       <c r="I167" s="1" t="inlineStr">
         <is>
           <t>食品21</t>
@@ -12595,7 +12611,11 @@
           <t>能源24</t>
         </is>
       </c>
-      <c r="H168" s="1" t="n"/>
+      <c r="H168" s="1" t="inlineStr">
+        <is>
+          <t>机械21</t>
+        </is>
+      </c>
       <c r="I168" s="1" t="inlineStr">
         <is>
           <t>食品21</t>
@@ -12984,7 +13004,11 @@
           <t>能源24</t>
         </is>
       </c>
-      <c r="H173" s="1" t="n"/>
+      <c r="H173" s="1" t="inlineStr">
+        <is>
+          <t>机械21</t>
+        </is>
+      </c>
       <c r="I173" s="1" t="inlineStr">
         <is>
           <t>能源21</t>
